--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_concproduct_OV_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_concproduct_OV_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>539</v>
+        <v>534.6510700667664</v>
       </c>
       <c r="C2">
-        <v>380</v>
+        <v>377.7946475571405</v>
       </c>
       <c r="D2">
-        <v>325</v>
+        <v>324.051286191299</v>
       </c>
       <c r="E2">
-        <v>296</v>
+        <v>294.1235762200708</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>635</v>
+        <v>629.9092690074646</v>
       </c>
       <c r="C3">
-        <v>449</v>
+        <v>447.0569051666072</v>
       </c>
       <c r="D3">
-        <v>383</v>
+        <v>381.4389287730951</v>
       </c>
       <c r="E3">
-        <v>351</v>
+        <v>348.9452654021009</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>602</v>
+        <v>598.1958735930043</v>
       </c>
       <c r="C4">
-        <v>426</v>
+        <v>424.1184117712934</v>
       </c>
       <c r="D4">
-        <v>363</v>
+        <v>362.0099379655671</v>
       </c>
       <c r="E4">
-        <v>333</v>
+        <v>331.7329920809061</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>416</v>
+        <v>412.9368477255957</v>
       </c>
       <c r="C5">
-        <v>295</v>
+        <v>293.7040883048616</v>
       </c>
       <c r="D5">
-        <v>249</v>
+        <v>247.5866598743755</v>
       </c>
       <c r="E5">
-        <v>230</v>
+        <v>229.1525758334074</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>371</v>
+        <v>368.1656625667244</v>
       </c>
       <c r="C6">
-        <v>262</v>
+        <v>260.2542893699746</v>
       </c>
       <c r="D6">
-        <v>222</v>
+        <v>220.7089877195534</v>
       </c>
       <c r="E6">
-        <v>202</v>
+        <v>201.5736754565277</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>39</v>
+        <v>38.240897399423</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>27.00912438045556</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>23.14028073250289</v>
       </c>
       <c r="E7">
-        <v>21</v>
+        <v>21.07467748317314</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2124</v>
+        <v>2108.712530461781</v>
       </c>
       <c r="C8">
-        <v>1501</v>
+        <v>1492.364264413481</v>
       </c>
       <c r="D8">
-        <v>1294</v>
+        <v>1288.178366683002</v>
       </c>
       <c r="E8">
-        <v>1165</v>
+        <v>1159.863934197644</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>533</v>
+        <v>529.2628919600966</v>
       </c>
       <c r="C9">
-        <v>378</v>
+        <v>376.1099035608317</v>
       </c>
       <c r="D9">
-        <v>322</v>
+        <v>320.922848532379</v>
       </c>
       <c r="E9">
-        <v>295</v>
+        <v>293.7669522327109</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>198</v>
+        <v>196.6119278183982</v>
       </c>
       <c r="C10">
-        <v>137</v>
+        <v>136.2395603756289</v>
       </c>
       <c r="D10">
-        <v>120</v>
+        <v>119.6487339999811</v>
       </c>
       <c r="E10">
-        <v>110</v>
+        <v>109.4132806796197</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>35</v>
+        <v>35.10725127135109</v>
       </c>
       <c r="C11">
-        <v>23</v>
+        <v>22.9913519096603</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>19.94071111510026</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>19.71785220273538</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>73</v>
+        <v>72.76555853056067</v>
       </c>
       <c r="C12">
-        <v>52</v>
+        <v>51.23873475999182</v>
       </c>
       <c r="D12">
-        <v>44</v>
+        <v>43.30216753786912</v>
       </c>
       <c r="E12">
-        <v>39</v>
+        <v>38.97354084412795</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>110</v>
+        <v>109.6583159454891</v>
       </c>
       <c r="C13">
-        <v>76</v>
+        <v>75.12354742175511</v>
       </c>
       <c r="D13">
-        <v>67</v>
+        <v>66.16126303641018</v>
       </c>
       <c r="E13">
-        <v>62</v>
+        <v>61.19905936475248</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_concproduct_OV_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_concproduct_OV_Fiets.xlsx
@@ -388,13 +388,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>534.6510700667664</v>
+        <v>534.6510700667666</v>
       </c>
       <c r="C2">
-        <v>377.7946475571405</v>
+        <v>377.7946475571408</v>
       </c>
       <c r="D2">
-        <v>324.051286191299</v>
+        <v>324.0512861912988</v>
       </c>
       <c r="E2">
         <v>294.1235762200708</v>
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>629.9092690074646</v>
+        <v>629.9092690074647</v>
       </c>
       <c r="C3">
-        <v>447.0569051666072</v>
+        <v>447.056905166607</v>
       </c>
       <c r="D3">
-        <v>381.4389287730951</v>
+        <v>381.4389287730949</v>
       </c>
       <c r="E3">
-        <v>348.9452654021009</v>
+        <v>348.9452654021011</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>598.1958735930043</v>
+        <v>598.1958735930042</v>
       </c>
       <c r="C4">
-        <v>424.1184117712934</v>
+        <v>424.1184117712937</v>
       </c>
       <c r="D4">
-        <v>362.0099379655671</v>
+        <v>362.009937965567</v>
       </c>
       <c r="E4">
-        <v>331.7329920809061</v>
+        <v>331.7329920809059</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,13 +439,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>412.9368477255957</v>
+        <v>412.936847725596</v>
       </c>
       <c r="C5">
         <v>293.7040883048616</v>
       </c>
       <c r="D5">
-        <v>247.5866598743755</v>
+        <v>247.5866598743754</v>
       </c>
       <c r="E5">
         <v>229.1525758334074</v>
@@ -456,13 +456,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>368.1656625667244</v>
+        <v>368.1656625667248</v>
       </c>
       <c r="C6">
-        <v>260.2542893699746</v>
+        <v>260.2542893699747</v>
       </c>
       <c r="D6">
-        <v>220.7089877195534</v>
+        <v>220.7089877195531</v>
       </c>
       <c r="E6">
         <v>201.5736754565277</v>
@@ -479,10 +479,10 @@
         <v>27.00912438045556</v>
       </c>
       <c r="D7">
-        <v>23.14028073250289</v>
+        <v>23.14028073250288</v>
       </c>
       <c r="E7">
-        <v>21.07467748317314</v>
+        <v>21.07467748317313</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,7 +490,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2108.712530461781</v>
+        <v>2108.712530461779</v>
       </c>
       <c r="C8">
         <v>1492.364264413481</v>
@@ -499,7 +499,7 @@
         <v>1288.178366683002</v>
       </c>
       <c r="E8">
-        <v>1159.863934197644</v>
+        <v>1159.863934197643</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>529.2628919600966</v>
+        <v>529.2628919600965</v>
       </c>
       <c r="C9">
-        <v>376.1099035608317</v>
+        <v>376.1099035608318</v>
       </c>
       <c r="D9">
-        <v>320.922848532379</v>
+        <v>320.9228485323792</v>
       </c>
       <c r="E9">
-        <v>293.7669522327109</v>
+        <v>293.766952232711</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>196.6119278183982</v>
+        <v>196.6119278183984</v>
       </c>
       <c r="C10">
-        <v>136.2395603756289</v>
+        <v>136.2395603756288</v>
       </c>
       <c r="D10">
         <v>119.6487339999811</v>
       </c>
       <c r="E10">
-        <v>109.4132806796197</v>
+        <v>109.4132806796198</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,7 +541,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>35.10725127135109</v>
+        <v>35.10725127135111</v>
       </c>
       <c r="C11">
         <v>22.9913519096603</v>
@@ -550,7 +550,7 @@
         <v>19.94071111510026</v>
       </c>
       <c r="E11">
-        <v>19.71785220273538</v>
+        <v>19.71785220273537</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -561,7 +561,7 @@
         <v>72.76555853056067</v>
       </c>
       <c r="C12">
-        <v>51.23873475999182</v>
+        <v>51.23873475999183</v>
       </c>
       <c r="D12">
         <v>43.30216753786912</v>
@@ -578,10 +578,10 @@
         <v>109.6583159454891</v>
       </c>
       <c r="C13">
-        <v>75.12354742175511</v>
+        <v>75.12354742175509</v>
       </c>
       <c r="D13">
-        <v>66.16126303641018</v>
+        <v>66.16126303641012</v>
       </c>
       <c r="E13">
         <v>61.19905936475248</v>
